--- a/BalanceSheet/MOH_bal.xlsx
+++ b/BalanceSheet/MOH_bal.xlsx
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-2080000000.0</v>
+        <v>-4018000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>-3622000000.0</v>
